--- a/dataAndGraphs.xlsx
+++ b/dataAndGraphs.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henry/Desktop/CS/CS221/CS221-master 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaylee\Documents\CS221\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="generatedData" localSheetId="1">Sheet2!$A$1:$C$41</definedName>
     <definedName name="generatedData" localSheetId="2">Sheet3!$A$1:$C$141</definedName>
+    <definedName name="generatedData" localSheetId="3">Sheet5!$A$1:$C$101</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,7 +34,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="generatedData" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/henry/Desktop/CS/CS221/CS221-master 2/generatedData.txt" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/henry/Desktop/CS/CS221/CS221-master 2/generatedData.txt" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -44,7 +43,16 @@
     </textPr>
   </connection>
   <connection id="2" name="generatedData1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/henry/Desktop/CS/CS221/CS221-master 2/generatedData.txt" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/henry/Desktop/CS/CS221/CS221-master 2/generatedData.txt" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="generatedData2" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Kaylee\Documents\CS221\generatedData.txt" tab="0" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -56,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>number of Ingredients</t>
   </si>
@@ -127,6 +135,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -146,7 +157,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -225,124 +235,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,124 +364,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2830.0</c:v>
+                  <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5289.0</c:v>
+                  <c:v>5289</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2874.0</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14561.0</c:v>
+                  <c:v>14561</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10835.0</c:v>
+                  <c:v>10835</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11817.0</c:v>
+                  <c:v>11817</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19247.0</c:v>
+                  <c:v>19247</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12450.0</c:v>
+                  <c:v>12450</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13473.0</c:v>
+                  <c:v>13473</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17574.0</c:v>
+                  <c:v>17574</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19483.0</c:v>
+                  <c:v>19483</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14117.0</c:v>
+                  <c:v>14117</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14239.0</c:v>
+                  <c:v>14239</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39570.0</c:v>
+                  <c:v>39570</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11880.0</c:v>
+                  <c:v>11880</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29549.0</c:v>
+                  <c:v>29549</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24651.0</c:v>
+                  <c:v>24651</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14562.0</c:v>
+                  <c:v>14562</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19769.0</c:v>
+                  <c:v>19769</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16398.0</c:v>
+                  <c:v>16398</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26407.0</c:v>
+                  <c:v>26407</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40138.0</c:v>
+                  <c:v>40138</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12347.0</c:v>
+                  <c:v>12347</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17201.0</c:v>
+                  <c:v>17201</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21923.0</c:v>
+                  <c:v>21923</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32001.0</c:v>
+                  <c:v>32001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16285.0</c:v>
+                  <c:v>16285</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30830.0</c:v>
+                  <c:v>30830</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47264.0</c:v>
+                  <c:v>47264</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12889.0</c:v>
+                  <c:v>12889</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27533.0</c:v>
+                  <c:v>27533</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14243.0</c:v>
+                  <c:v>14243</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26184.0</c:v>
+                  <c:v>26184</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40247.0</c:v>
+                  <c:v>40247</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21115.0</c:v>
+                  <c:v>21115</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>33702.0</c:v>
+                  <c:v>33702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20762.0</c:v>
+                  <c:v>20762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,124 +531,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,124 +660,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>924.0</c:v>
+                  <c:v>924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131.0</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1436.0</c:v>
+                  <c:v>1436</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10026.0</c:v>
+                  <c:v>10026</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1444.0</c:v>
+                  <c:v>1444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5358.0</c:v>
+                  <c:v>5358</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>432.0</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>541.0</c:v>
+                  <c:v>541</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3325.0</c:v>
+                  <c:v>3325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12570.0</c:v>
+                  <c:v>12570</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1030.0</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7004.0</c:v>
+                  <c:v>7004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12726.0</c:v>
+                  <c:v>12726</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3188.0</c:v>
+                  <c:v>3188</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>651.0</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4207.0</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2229.0</c:v>
+                  <c:v>2229</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13955.0</c:v>
+                  <c:v>13955</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1384.0</c:v>
+                  <c:v>1384</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5310.0</c:v>
+                  <c:v>5310</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2543.0</c:v>
+                  <c:v>2543</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18595.0</c:v>
+                  <c:v>18595</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4362.0</c:v>
+                  <c:v>4362</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3992.0</c:v>
+                  <c:v>3992</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18185.0</c:v>
+                  <c:v>18185</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1042.0</c:v>
+                  <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4428.0</c:v>
+                  <c:v>4428</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2599.0</c:v>
+                  <c:v>2599</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14727.0</c:v>
+                  <c:v>14727</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9551.0</c:v>
+                  <c:v>9551</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6807.0</c:v>
+                  <c:v>6807</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19618.0</c:v>
+                  <c:v>19618</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6249.0</c:v>
+                  <c:v>6249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,11 +792,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1762594736"/>
-        <c:axId val="1765198992"/>
+        <c:axId val="328131192"/>
+        <c:axId val="328130800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1762594736"/>
+        <c:axId val="328131192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,6 +816,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -842,12 +853,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765198992"/>
+        <c:crossAx val="328130800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1765198992"/>
+        <c:axId val="328130800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,6 +878,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -903,7 +915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1762594736"/>
+        <c:crossAx val="328131192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -917,7 +929,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1114,304 +1125,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,304 +1434,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>12850.0</c:v>
+                  <c:v>12850</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4791.0</c:v>
+                  <c:v>4791</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4937.0</c:v>
+                  <c:v>4937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2840.0</c:v>
+                  <c:v>2840</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2798.0</c:v>
+                  <c:v>2798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13618.0</c:v>
+                  <c:v>13618</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11738.0</c:v>
+                  <c:v>11738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4765.0</c:v>
+                  <c:v>4765</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11962.0</c:v>
+                  <c:v>11962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12054.0</c:v>
+                  <c:v>12054</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14634.0</c:v>
+                  <c:v>14634</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14762.0</c:v>
+                  <c:v>14762</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11355.0</c:v>
+                  <c:v>11355</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8173.0</c:v>
+                  <c:v>8173</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2862.0</c:v>
+                  <c:v>2862</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9045.0</c:v>
+                  <c:v>9045</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11009.0</c:v>
+                  <c:v>11009</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1789.0</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26092.0</c:v>
+                  <c:v>26092</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11457.0</c:v>
+                  <c:v>11457</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7174.0</c:v>
+                  <c:v>7174</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19870.0</c:v>
+                  <c:v>19870</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7053.0</c:v>
+                  <c:v>7053</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7413.0</c:v>
+                  <c:v>7413</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18232.0</c:v>
+                  <c:v>18232</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15094.0</c:v>
+                  <c:v>15094</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10470.0</c:v>
+                  <c:v>10470</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13702.0</c:v>
+                  <c:v>13702</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19324.0</c:v>
+                  <c:v>19324</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11873.0</c:v>
+                  <c:v>11873</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11742.0</c:v>
+                  <c:v>11742</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6908.0</c:v>
+                  <c:v>6908</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6612.0</c:v>
+                  <c:v>6612</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18861.0</c:v>
+                  <c:v>18861</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22630.0</c:v>
+                  <c:v>22630</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20962.0</c:v>
+                  <c:v>20962</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21281.0</c:v>
+                  <c:v>21281</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21002.0</c:v>
+                  <c:v>21002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21113.0</c:v>
+                  <c:v>21113</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>19353.0</c:v>
+                  <c:v>19353</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12756.0</c:v>
+                  <c:v>12756</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28968.0</c:v>
+                  <c:v>28968</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>26874.0</c:v>
+                  <c:v>26874</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12661.0</c:v>
+                  <c:v>12661</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>39860.0</c:v>
+                  <c:v>39860</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20649.0</c:v>
+                  <c:v>20649</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12703.0</c:v>
+                  <c:v>12703</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21742.0</c:v>
+                  <c:v>21742</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13919.0</c:v>
+                  <c:v>13919</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15786.0</c:v>
+                  <c:v>15786</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>29259.0</c:v>
+                  <c:v>29259</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>33274.0</c:v>
+                  <c:v>33274</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>28816.0</c:v>
+                  <c:v>28816</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>36869.0</c:v>
+                  <c:v>36869</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>22998.0</c:v>
+                  <c:v>22998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>16999.0</c:v>
+                  <c:v>16999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14348.0</c:v>
+                  <c:v>14348</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25881.0</c:v>
+                  <c:v>25881</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>39450.0</c:v>
+                  <c:v>39450</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26626.0</c:v>
+                  <c:v>26626</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>12650.0</c:v>
+                  <c:v>12650</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>16049.0</c:v>
+                  <c:v>16049</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>13705.0</c:v>
+                  <c:v>13705</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>14403.0</c:v>
+                  <c:v>14403</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>27459.0</c:v>
+                  <c:v>27459</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13295.0</c:v>
+                  <c:v>13295</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12798.0</c:v>
+                  <c:v>12798</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>33512.0</c:v>
+                  <c:v>33512</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>19926.0</c:v>
+                  <c:v>19926</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>16320.0</c:v>
+                  <c:v>16320</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>15921.0</c:v>
+                  <c:v>15921</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>12736.0</c:v>
+                  <c:v>12736</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>14939.0</c:v>
+                  <c:v>14939</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>33247.0</c:v>
+                  <c:v>33247</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>29201.0</c:v>
+                  <c:v>29201</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>37510.0</c:v>
+                  <c:v>37510</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>32297.0</c:v>
+                  <c:v>32297</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>17898.0</c:v>
+                  <c:v>17898</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>23491.0</c:v>
+                  <c:v>23491</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>16530.0</c:v>
+                  <c:v>16530</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>26811.0</c:v>
+                  <c:v>26811</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>23273.0</c:v>
+                  <c:v>23273</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>27893.0</c:v>
+                  <c:v>27893</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>46504.0</c:v>
+                  <c:v>46504</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>38118.0</c:v>
+                  <c:v>38118</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>45722.0</c:v>
+                  <c:v>45722</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>34239.0</c:v>
+                  <c:v>34239</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>32260.0</c:v>
+                  <c:v>32260</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>35914.0</c:v>
+                  <c:v>35914</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>29288.0</c:v>
+                  <c:v>29288</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>36777.0</c:v>
+                  <c:v>36777</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>35006.0</c:v>
+                  <c:v>35006</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>18161.0</c:v>
+                  <c:v>18161</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>18129.0</c:v>
+                  <c:v>18129</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>37583.0</c:v>
+                  <c:v>37583</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>38103.0</c:v>
+                  <c:v>38103</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>36982.0</c:v>
+                  <c:v>36982</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>38210.0</c:v>
+                  <c:v>38210</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>39440.0</c:v>
+                  <c:v>39440</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>17890.0</c:v>
+                  <c:v>17890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1776,304 +1787,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,304 +2096,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>953.0</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>464.0</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1616.0</c:v>
+                  <c:v>1616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>272.0</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>249.0</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>309.0</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>199.0</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>306.0</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1877.0</c:v>
+                  <c:v>1877</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1487.0</c:v>
+                  <c:v>1487</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1744.0</c:v>
+                  <c:v>1744</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9394.0</c:v>
+                  <c:v>9394</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2479.0</c:v>
+                  <c:v>2479</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>861.0</c:v>
+                  <c:v>861</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>735.0</c:v>
+                  <c:v>735</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>775.0</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>959.0</c:v>
+                  <c:v>959</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3451.0</c:v>
+                  <c:v>3451</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3201.0</c:v>
+                  <c:v>3201</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4421.0</c:v>
+                  <c:v>4421</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>249.0</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4130.0</c:v>
+                  <c:v>4130</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>799.0</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>536.0</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3363.0</c:v>
+                  <c:v>3363</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8731.0</c:v>
+                  <c:v>8731</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>626.0</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1679.0</c:v>
+                  <c:v>1679</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1819.0</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1827.0</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>319.0</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>260.0</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1865.0</c:v>
+                  <c:v>1865</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7306.0</c:v>
+                  <c:v>7306</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7512.0</c:v>
+                  <c:v>7512</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1666.0</c:v>
+                  <c:v>1666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13081.0</c:v>
+                  <c:v>13081</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1482.0</c:v>
+                  <c:v>1482</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1641.0</c:v>
+                  <c:v>1641</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10341.0</c:v>
+                  <c:v>10341</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3374.0</c:v>
+                  <c:v>3374</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4234.0</c:v>
+                  <c:v>4234</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9728.0</c:v>
+                  <c:v>9728</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7188.0</c:v>
+                  <c:v>7188</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>14270.0</c:v>
+                  <c:v>14270</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>15564.0</c:v>
+                  <c:v>15564</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11267.0</c:v>
+                  <c:v>11267</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4672.0</c:v>
+                  <c:v>4672</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2548.0</c:v>
+                  <c:v>2548</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1339.0</c:v>
+                  <c:v>1339</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>12085.0</c:v>
+                  <c:v>12085</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4237.0</c:v>
+                  <c:v>4237</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1649.0</c:v>
+                  <c:v>1649</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3878.0</c:v>
+                  <c:v>3878</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1303.0</c:v>
+                  <c:v>1303</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2516.0</c:v>
+                  <c:v>2516</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13949.0</c:v>
+                  <c:v>13949</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1508.0</c:v>
+                  <c:v>1508</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1144.0</c:v>
+                  <c:v>1144</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12369.0</c:v>
+                  <c:v>12369</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7730.0</c:v>
+                  <c:v>7730</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4266.0</c:v>
+                  <c:v>4266</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3822.0</c:v>
+                  <c:v>3822</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1014.0</c:v>
+                  <c:v>1014</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5568.0</c:v>
+                  <c:v>5568</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>18257.0</c:v>
+                  <c:v>18257</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2524.0</c:v>
+                  <c:v>2524</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11068.0</c:v>
+                  <c:v>11068</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4114.0</c:v>
+                  <c:v>4114</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5764.0</c:v>
+                  <c:v>5764</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10650.0</c:v>
+                  <c:v>10650</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3153.0</c:v>
+                  <c:v>3153</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11425.0</c:v>
+                  <c:v>11425</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9460.0</c:v>
+                  <c:v>9460</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>14548.0</c:v>
+                  <c:v>14548</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>15536.0</c:v>
+                  <c:v>15536</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>10435.0</c:v>
+                  <c:v>10435</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>16209.0</c:v>
+                  <c:v>16209</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>12947.0</c:v>
+                  <c:v>12947</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8779.0</c:v>
+                  <c:v>8779</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>18746.0</c:v>
+                  <c:v>18746</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1454.0</c:v>
+                  <c:v>1454</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13224.0</c:v>
+                  <c:v>13224</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>11403.0</c:v>
+                  <c:v>11403</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5236.0</c:v>
+                  <c:v>5236</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5770.0</c:v>
+                  <c:v>5770</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10187.0</c:v>
+                  <c:v>10187</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9700.0</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>8505.0</c:v>
+                  <c:v>8505</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8148.0</c:v>
+                  <c:v>8148</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>13969.0</c:v>
+                  <c:v>13969</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5416.0</c:v>
+                  <c:v>5416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,11 +2408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1767964208"/>
-        <c:axId val="1780748928"/>
+        <c:axId val="328130016"/>
+        <c:axId val="328129624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1767964208"/>
+        <c:axId val="328130016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,6 +2488,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2513,12 +2525,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1780748928"/>
+        <c:crossAx val="328129624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1780748928"/>
+        <c:axId val="328129624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,6 +2611,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2635,7 +2648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1767964208"/>
+        <c:crossAx val="328130016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2846,424 +2859,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3275,22 +3288,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2830.0</c:v>
+                  <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2644.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1437.0</c:v>
+                  <c:v>1437</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7280.5</c:v>
@@ -3299,16 +3312,16 @@
                   <c:v>5417.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3939.0</c:v>
+                  <c:v>3939</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6415.666666666666</c:v>
+                  <c:v>6415.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4150.0</c:v>
+                  <c:v>4150</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4491.0</c:v>
+                  <c:v>4491</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4393.5</c:v>
@@ -3323,10 +3336,10 @@
                   <c:v>3559.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7914.0</c:v>
+                  <c:v>7914</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2376.0</c:v>
+                  <c:v>2376</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5909.8</c:v>
@@ -3335,28 +3348,28 @@
                   <c:v>4930.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2427.0</c:v>
+                  <c:v>2427</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3294.833333333333</c:v>
+                  <c:v>3294.8333333333335</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2733.0</c:v>
+                  <c:v>2733</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4401.166666666666</c:v>
+                  <c:v>4401.166666666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5734.0</c:v>
+                  <c:v>5734</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1763.857142857143</c:v>
+                  <c:v>1763.8571428571429</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2457.285714285714</c:v>
+                  <c:v>2457.2857142857142</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3131.857142857142</c:v>
+                  <c:v>3131.8571428571427</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4000.125</c:v>
@@ -3368,19 +3381,19 @@
                   <c:v>3853.75</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5908.0</c:v>
+                  <c:v>5908</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1432.111111111111</c:v>
+                  <c:v>1432.1111111111111</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3059.222222222222</c:v>
+                  <c:v>3059.2222222222222</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1582.555555555556</c:v>
+                  <c:v>1582.5555555555557</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2909.333333333333</c:v>
+                  <c:v>2909.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4024.7</c:v>
@@ -3392,43 +3405,43 @@
                   <c:v>3370.2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2076.2</c:v>
+                  <c:v>2076.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12850.0</c:v>
+                  <c:v>12850</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4791.0</c:v>
+                  <c:v>4791</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4937.0</c:v>
+                  <c:v>4937</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2840.0</c:v>
+                  <c:v>2840</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2798.0</c:v>
+                  <c:v>2798</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13618.0</c:v>
+                  <c:v>13618</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11738.0</c:v>
+                  <c:v>11738</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4765.0</c:v>
+                  <c:v>4765</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11962.0</c:v>
+                  <c:v>11962</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12054.0</c:v>
+                  <c:v>12054</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7317.0</c:v>
+                  <c:v>7317</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7381.0</c:v>
+                  <c:v>7381</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5677.5</c:v>
@@ -3437,7 +3450,7 @@
                   <c:v>4086.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1431.0</c:v>
+                  <c:v>1431</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>4522.5</c:v>
@@ -3449,22 +3462,22 @@
                   <c:v>894.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13046.0</c:v>
+                  <c:v>13046</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>5728.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2391.333333333333</c:v>
+                  <c:v>2391.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>6623.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2351.0</c:v>
+                  <c:v>2351</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2471.0</c:v>
+                  <c:v>2471</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>6077.333333333333</c:v>
@@ -3473,7 +3486,7 @@
                   <c:v>5031.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3490.0</c:v>
+                  <c:v>3490</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>4567.333333333333</c:v>
@@ -3482,16 +3495,16 @@
                   <c:v>6441.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3957.666666666667</c:v>
+                  <c:v>3957.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>2935.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1727.0</c:v>
+                  <c:v>1727</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1653.0</c:v>
+                  <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>4715.25</c:v>
@@ -3515,7 +3528,7 @@
                   <c:v>4838.25</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2551.2</c:v>
+                  <c:v>2551.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>5793.6</c:v>
@@ -3524,10 +3537,10 @@
                   <c:v>5374.8</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2532.2</c:v>
+                  <c:v>2532.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7972.0</c:v>
+                  <c:v>7972</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>4129.8</c:v>
@@ -3536,7 +3549,7 @@
                   <c:v>2540.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4348.4</c:v>
+                  <c:v>4348.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>2783.8</c:v>
@@ -3548,67 +3561,67 @@
                   <c:v>4876.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5545.666666666666</c:v>
+                  <c:v>5545.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4802.666666666666</c:v>
+                  <c:v>4802.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>6144.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3833.0</c:v>
+                  <c:v>3833</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2833.166666666667</c:v>
+                  <c:v>2833.1666666666665</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2391.333333333333</c:v>
+                  <c:v>2391.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>4313.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6575.0</c:v>
+                  <c:v>6575</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4437.666666666666</c:v>
+                  <c:v>4437.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1807.142857142857</c:v>
+                  <c:v>1807.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2292.714285714286</c:v>
+                  <c:v>2292.7142857142858</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1957.857142857143</c:v>
+                  <c:v>1957.8571428571429</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2057.571428571428</c:v>
+                  <c:v>2057.5714285714284</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3922.714285714286</c:v>
+                  <c:v>3922.7142857142858</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1899.285714285714</c:v>
+                  <c:v>1899.2857142857142</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1828.285714285714</c:v>
+                  <c:v>1828.2857142857142</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4787.428571428571</c:v>
+                  <c:v>4787.4285714285716</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2846.571428571428</c:v>
+                  <c:v>2846.5714285714284</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2331.428571428572</c:v>
+                  <c:v>2331.4285714285716</c:v>
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>1990.125</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1592.0</c:v>
+                  <c:v>1592</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>1867.375</c:v>
@@ -3635,34 +3648,34 @@
                   <c:v>2066.25</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2979.0</c:v>
+                  <c:v>2979</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2585.888888888889</c:v>
+                  <c:v>2585.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3099.222222222222</c:v>
+                  <c:v>3099.2222222222222</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5167.11111111111</c:v>
+                  <c:v>5167.1111111111113</c:v>
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>4235.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5080.222222222222</c:v>
+                  <c:v>5080.2222222222226</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3804.333333333333</c:v>
+                  <c:v>3804.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3584.444444444444</c:v>
+                  <c:v>3584.4444444444443</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3990.444444444444</c:v>
+                  <c:v>3990.4444444444443</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3254.222222222222</c:v>
+                  <c:v>3254.2222222222222</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>3677.7</c:v>
@@ -3686,13 +3699,13 @@
                   <c:v>3698.2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3821.0</c:v>
+                  <c:v>3821</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3944.0</c:v>
+                  <c:v>3944</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1789.0</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3748,424 +3761,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4177,46 +4190,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>462.0</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>718.0</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3342.0</c:v>
+                  <c:v>3342</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>481.3333333333333</c:v>
+                  <c:v>481.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1786.0</c:v>
+                  <c:v>1786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>108.0</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>135.25</c:v>
@@ -4225,40 +4238,40 @@
                   <c:v>831.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2514.0</c:v>
+                  <c:v>2514</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206.0</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1400.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2545.2</c:v>
+                  <c:v>2545.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>531.3333333333333</c:v>
+                  <c:v>531.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>108.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>701.1666666666666</c:v>
+                  <c:v>701.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>371.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1993.571428571429</c:v>
+                  <c:v>1993.5714285714287</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>197.7142857142857</c:v>
+                  <c:v>197.71428571428572</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>758.5714285714286</c:v>
+                  <c:v>758.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>363.2857142857143</c:v>
+                  <c:v>363.28571428571428</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2324.375</c:v>
@@ -4267,22 +4280,22 @@
                   <c:v>545.25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>499.0</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2273.125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>115.7777777777778</c:v>
+                  <c:v>115.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>492.0</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>288.7777777777778</c:v>
+                  <c:v>288.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1636.333333333333</c:v>
+                  <c:v>1636.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>955.1</c:v>
@@ -4297,40 +4310,40 @@
                   <c:v>624.9</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>953.0</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>464.0</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1616.0</c:v>
+                  <c:v>1616</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>272.0</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>249.0</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>309.0</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>99.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>153.0</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>938.5</c:v>
@@ -4342,55 +4355,55 @@
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>872.0</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4697.0</c:v>
+                  <c:v>4697</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1239.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>287.0</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>245.0</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>258.3333333333333</c:v>
+                  <c:v>258.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>319.6666666666666</c:v>
+                  <c:v>319.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1150.333333333333</c:v>
+                  <c:v>1150.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1067.0</c:v>
+                  <c:v>1067</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>433.3333333333333</c:v>
+                  <c:v>433.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1473.666666666667</c:v>
+                  <c:v>1473.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1376.666666666667</c:v>
+                  <c:v>1376.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>199.75</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>134.0</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>840.75</c:v>
@@ -4414,10 +4427,10 @@
                   <c:v>79.75</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>373.0</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1461.2</c:v>
@@ -4429,16 +4442,16 @@
                   <c:v>333.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2616.2</c:v>
+                  <c:v>2616.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>296.4</c:v>
+                  <c:v>296.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>328.2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2068.2</c:v>
+                  <c:v>2068.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>674.8</c:v>
@@ -4447,64 +4460,64 @@
                   <c:v>846.8</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1621.333333333333</c:v>
+                  <c:v>1621.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1198.0</c:v>
+                  <c:v>1198</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2378.333333333333</c:v>
+                  <c:v>2378.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2594.0</c:v>
+                  <c:v>2594</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1877.833333333333</c:v>
+                  <c:v>1877.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>778.6666666666666</c:v>
+                  <c:v>778.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>424.6666666666666</c:v>
+                  <c:v>424.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>223.1666666666667</c:v>
+                  <c:v>223.16666666666666</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2014.166666666667</c:v>
+                  <c:v>2014.1666666666667</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>706.1666666666666</c:v>
+                  <c:v>706.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>235.5714285714286</c:v>
+                  <c:v>235.57142857142858</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>554.0</c:v>
+                  <c:v>554</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>186.1428571428571</c:v>
+                  <c:v>186.14285714285714</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>359.4285714285714</c:v>
+                  <c:v>359.42857142857144</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1992.714285714286</c:v>
+                  <c:v>1992.7142857142858</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>215.4285714285714</c:v>
+                  <c:v>215.42857142857142</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>163.4285714285714</c:v>
+                  <c:v>163.42857142857142</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1767.0</c:v>
+                  <c:v>1767</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1104.285714285714</c:v>
+                  <c:v>1104.2857142857142</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>609.4285714285714</c:v>
+                  <c:v>609.42857142857144</c:v>
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>477.75</c:v>
@@ -4513,7 +4526,7 @@
                   <c:v>126.75</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>696.0</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>2282.125</c:v>
@@ -4537,34 +4550,34 @@
                   <c:v>394.125</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1269.444444444444</c:v>
+                  <c:v>1269.4444444444443</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1051.111111111111</c:v>
+                  <c:v>1051.1111111111111</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1616.444444444444</c:v>
+                  <c:v>1616.4444444444443</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1726.222222222222</c:v>
+                  <c:v>1726.2222222222222</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1159.444444444444</c:v>
+                  <c:v>1159.4444444444443</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1801.0</c:v>
+                  <c:v>1801</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1438.555555555556</c:v>
+                  <c:v>1438.5555555555557</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>975.4444444444445</c:v>
+                  <c:v>975.44444444444446</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2082.888888888889</c:v>
+                  <c:v>2082.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>161.5555555555555</c:v>
+                  <c:v>161.55555555555554</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>1322.4</c:v>
@@ -4576,13 +4589,13 @@
                   <c:v>523.6</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>577.0</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>1018.7</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>970.0</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>850.5</c:v>
@@ -4609,11 +4622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1724256192"/>
-        <c:axId val="1726118064"/>
+        <c:axId val="329308648"/>
+        <c:axId val="329306296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1724256192"/>
+        <c:axId val="329308648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4694,6 +4707,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4730,12 +4744,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726118064"/>
+        <c:crossAx val="329306296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1726118064"/>
+        <c:axId val="329306296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,7 +4813,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0159627552469702"/>
+              <c:x val="1.59627552469702E-2"/>
               <c:y val="0.15033591166804"/>
             </c:manualLayout>
           </c:layout>
@@ -4869,7 +4883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724256192"/>
+        <c:crossAx val="329308648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4924,6 +4938,1712 @@
     <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Evaluation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Generated Instructions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Evaluation of CSP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5113</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1324.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3459</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>697.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1157.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6509</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1291</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1778</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6521</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1208.33333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7156.6666666700003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2332.6666666699998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9912.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11569.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8090.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5457.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5140.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8812.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6527.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6414.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6308.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5711.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4697.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4775.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6733.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5642</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12278.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5350.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4785.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11650.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4567.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6105.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4437.3333333299997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4269.1666666700003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10038</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6014.1666666700003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7164.8333333299997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4136.3333333299997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3900.6666666699998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5272</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4355.1666666700003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7066.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8488.5714285699996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5592.7142857099998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6290.1428571400002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3500.5714285700001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4571</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4596.2857142900002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3228</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9375.8571428600007</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4204.7142857099998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5063.7142857099998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3495.875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3750.375</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5492.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7152.375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3612.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3097.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6191.125</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3514.875</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3660.125</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3601.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2837.2222222199998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2999.1111111099999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4725.7777777800002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3680.7777777800002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4248.5555555600004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5090.5555555600004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3078.7777777800002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5197.8888888900001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4364.8888888900001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2378.5555555599999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4681.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3691.4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2925.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2638.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3010</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3443</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2600.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3382.6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2713.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3933.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Evaluation of Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>586.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>499.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>289.66666666700002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1070.33333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1470.66666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>742.33333333300004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1948.33333333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2844.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3274</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1982.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>519.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>203.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2013.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>661.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>782.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>296.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>394.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1532.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>803.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4262.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1119.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>237.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4187.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>690.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>504.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4136.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1951.33333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2369.1666666699998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>378.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>137.33333333300001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1142.33333333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>600.83333333300004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2424.6666666699998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2967.8571428599998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1390.5714285700001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2338.1428571400002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>324.57142857100001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>908.42857142900004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>975.85714285699999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>272.14285714300001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3553</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>834.85714285699999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1119.28571429</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>481.25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>828.875</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1894.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2374.75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>810.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>241.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2216.25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>628.875</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>659.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>723.125</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>294.33333333299998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1562.8888888900001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>846.44444444400006</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1048.4444444400001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1442.33333333</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1777.5555555599999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1536.66666667</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>166.444444444</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1884.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>866.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>477.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>280.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>666.1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1057.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>319.3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>736.3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>204.6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1107.5999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="441016864"/>
+        <c:axId val="441019608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="441016864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Ingredients</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441019608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="441019608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Evaluation Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441016864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -5028,6 +6748,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6615,6 +8375,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6654,16 +8930,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>737199</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>17013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6715,12 +8991,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="generatedData" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="generatedData" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="generatedData" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6992,14 +9307,14 @@
       <selection activeCell="E2" sqref="E2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7013,7 +9328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1</v>
       </c>
@@ -7027,7 +9342,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2</v>
       </c>
@@ -7041,7 +9356,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
@@ -7055,7 +9370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -7069,7 +9384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -7083,7 +9398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -7097,7 +9412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>3</v>
       </c>
@@ -7111,7 +9426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>1</v>
       </c>
@@ -7119,7 +9434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E10">
         <v>1</v>
       </c>
@@ -7127,7 +9442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E11">
         <v>1</v>
       </c>
@@ -7135,7 +9450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E12">
         <v>1</v>
       </c>
@@ -7143,7 +9458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E13">
         <v>3</v>
       </c>
@@ -7151,7 +9466,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E14">
         <v>3</v>
       </c>
@@ -7171,14 +9486,14 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7189,7 +9504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7200,7 +9515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7211,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7222,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7233,7 +9548,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7244,7 +9559,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -7255,7 +9570,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -7266,7 +9581,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7277,7 +9592,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7288,7 +9603,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7299,7 +9614,7 @@
         <v>10026</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -7310,7 +9625,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -7321,7 +9636,7 @@
         <v>5358</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4</v>
       </c>
@@ -7332,7 +9647,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7343,7 +9658,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -7354,7 +9669,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -7365,7 +9680,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5</v>
       </c>
@@ -7376,7 +9691,7 @@
         <v>12570</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -7387,7 +9702,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5</v>
       </c>
@@ -7398,7 +9713,7 @@
         <v>7004</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>5</v>
       </c>
@@ -7409,7 +9724,7 @@
         <v>12726</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6</v>
       </c>
@@ -7420,7 +9735,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
@@ -7431,7 +9746,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7442,7 +9757,7 @@
         <v>4207</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>6</v>
       </c>
@@ -7453,7 +9768,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>7</v>
       </c>
@@ -7464,7 +9779,7 @@
         <v>13955</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -7475,7 +9790,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7</v>
       </c>
@@ -7486,7 +9801,7 @@
         <v>5310</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7</v>
       </c>
@@ -7497,7 +9812,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
@@ -7508,7 +9823,7 @@
         <v>18595</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>8</v>
       </c>
@@ -7519,7 +9834,7 @@
         <v>4362</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8</v>
       </c>
@@ -7530,7 +9845,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
@@ -7541,7 +9856,7 @@
         <v>18185</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -7552,7 +9867,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9</v>
       </c>
@@ -7563,7 +9878,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9</v>
       </c>
@@ -7574,7 +9889,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9</v>
       </c>
@@ -7585,7 +9900,7 @@
         <v>14727</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>10</v>
       </c>
@@ -7596,7 +9911,7 @@
         <v>9551</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10</v>
       </c>
@@ -7607,7 +9922,7 @@
         <v>6807</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
@@ -7618,7 +9933,7 @@
         <v>19618</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10</v>
       </c>
@@ -7639,11 +9954,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B5" zoomScale="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -7652,7 +9967,7 @@
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7672,7 +9987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7694,7 +10009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7716,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7738,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7760,7 +10075,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7782,7 +10097,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -7804,7 +10119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -7826,7 +10141,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7848,7 +10163,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7870,7 +10185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7892,7 +10207,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -7914,7 +10229,7 @@
         <v>481.33333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -7936,7 +10251,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4</v>
       </c>
@@ -7958,7 +10273,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7980,7 +10295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -8002,7 +10317,7 @@
         <v>135.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -8024,7 +10339,7 @@
         <v>831.25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5</v>
       </c>
@@ -8046,7 +10361,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -8068,7 +10383,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5</v>
       </c>
@@ -8090,7 +10405,7 @@
         <v>1400.8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8112,7 +10427,7 @@
         <v>2545.1999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6</v>
       </c>
@@ -8134,7 +10449,7 @@
         <v>531.33333333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8156,7 +10471,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>6</v>
       </c>
@@ -8178,7 +10493,7 @@
         <v>701.16666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>6</v>
       </c>
@@ -8200,7 +10515,7 @@
         <v>371.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>7</v>
       </c>
@@ -8222,7 +10537,7 @@
         <v>1993.5714285714287</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -8244,7 +10559,7 @@
         <v>197.71428571428572</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7</v>
       </c>
@@ -8266,7 +10581,7 @@
         <v>758.57142857142856</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7</v>
       </c>
@@ -8288,7 +10603,7 @@
         <v>363.28571428571428</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
@@ -8310,7 +10625,7 @@
         <v>2324.375</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>8</v>
       </c>
@@ -8332,7 +10647,7 @@
         <v>545.25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8</v>
       </c>
@@ -8354,7 +10669,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
@@ -8376,7 +10691,7 @@
         <v>2273.125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -8398,7 +10713,7 @@
         <v>115.77777777777777</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9</v>
       </c>
@@ -8420,7 +10735,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9</v>
       </c>
@@ -8442,7 +10757,7 @@
         <v>288.77777777777777</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9</v>
       </c>
@@ -8464,7 +10779,7 @@
         <v>1636.3333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>10</v>
       </c>
@@ -8486,7 +10801,7 @@
         <v>955.1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10</v>
       </c>
@@ -8508,7 +10823,7 @@
         <v>680.7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
@@ -8530,7 +10845,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10</v>
       </c>
@@ -8552,7 +10867,7 @@
         <v>624.9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -8574,7 +10889,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1</v>
       </c>
@@ -8596,7 +10911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -8618,7 +10933,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
@@ -8640,7 +10955,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
@@ -8662,7 +10977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1</v>
       </c>
@@ -8684,7 +10999,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1</v>
       </c>
@@ -8706,7 +11021,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1</v>
       </c>
@@ -8728,7 +11043,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1</v>
       </c>
@@ -8750,7 +11065,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1</v>
       </c>
@@ -8772,7 +11087,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2</v>
       </c>
@@ -8794,7 +11109,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2</v>
       </c>
@@ -8816,7 +11131,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2</v>
       </c>
@@ -8838,7 +11153,7 @@
         <v>938.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2</v>
       </c>
@@ -8860,7 +11175,7 @@
         <v>743.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2</v>
       </c>
@@ -8882,7 +11197,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2</v>
       </c>
@@ -8904,7 +11219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2</v>
       </c>
@@ -8926,7 +11241,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2</v>
       </c>
@@ -8948,7 +11263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2</v>
       </c>
@@ -8970,7 +11285,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2</v>
       </c>
@@ -8992,7 +11307,7 @@
         <v>1239.5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>3</v>
       </c>
@@ -9014,7 +11329,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>3</v>
       </c>
@@ -9036,7 +11351,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>3</v>
       </c>
@@ -9058,7 +11373,7 @@
         <v>258.33333333333331</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>3</v>
       </c>
@@ -9080,7 +11395,7 @@
         <v>319.66666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>3</v>
       </c>
@@ -9102,7 +11417,7 @@
         <v>1150.3333333333333</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>3</v>
       </c>
@@ -9124,7 +11439,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>3</v>
       </c>
@@ -9146,7 +11461,7 @@
         <v>433.33333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>3</v>
       </c>
@@ -9168,7 +11483,7 @@
         <v>1473.6666666666667</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>3</v>
       </c>
@@ -9190,7 +11505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>3</v>
       </c>
@@ -9212,7 +11527,7 @@
         <v>1376.6666666666667</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>4</v>
       </c>
@@ -9234,7 +11549,7 @@
         <v>199.75</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>4</v>
       </c>
@@ -9256,7 +11571,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>4</v>
       </c>
@@ -9278,7 +11593,7 @@
         <v>840.75</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>4</v>
       </c>
@@ -9300,7 +11615,7 @@
         <v>2182.75</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>4</v>
       </c>
@@ -9322,7 +11637,7 @@
         <v>156.5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>4</v>
       </c>
@@ -9344,7 +11659,7 @@
         <v>419.75</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>4</v>
       </c>
@@ -9366,7 +11681,7 @@
         <v>454.75</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>4</v>
       </c>
@@ -9388,7 +11703,7 @@
         <v>456.75</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>4</v>
       </c>
@@ -9410,7 +11725,7 @@
         <v>79.75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>4</v>
       </c>
@@ -9432,7 +11747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>5</v>
       </c>
@@ -9454,7 +11769,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>5</v>
       </c>
@@ -9476,7 +11791,7 @@
         <v>1461.2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>5</v>
       </c>
@@ -9498,7 +11813,7 @@
         <v>1502.4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>5</v>
       </c>
@@ -9520,7 +11835,7 @@
         <v>333.2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>5</v>
       </c>
@@ -9542,7 +11857,7 @@
         <v>2616.1999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>5</v>
       </c>
@@ -9564,7 +11879,7 @@
         <v>296.39999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>5</v>
       </c>
@@ -9586,7 +11901,7 @@
         <v>328.2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>5</v>
       </c>
@@ -9608,7 +11923,7 @@
         <v>2068.1999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>5</v>
       </c>
@@ -9630,7 +11945,7 @@
         <v>674.8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>5</v>
       </c>
@@ -9652,7 +11967,7 @@
         <v>846.8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>6</v>
       </c>
@@ -9674,7 +11989,7 @@
         <v>1621.3333333333333</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>6</v>
       </c>
@@ -9696,7 +12011,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>6</v>
       </c>
@@ -9718,7 +12033,7 @@
         <v>2378.3333333333335</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>6</v>
       </c>
@@ -9740,7 +12055,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>6</v>
       </c>
@@ -9762,7 +12077,7 @@
         <v>1877.8333333333333</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>6</v>
       </c>
@@ -9784,7 +12099,7 @@
         <v>778.66666666666663</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>6</v>
       </c>
@@ -9806,7 +12121,7 @@
         <v>424.66666666666669</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>6</v>
       </c>
@@ -9828,7 +12143,7 @@
         <v>223.16666666666666</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>6</v>
       </c>
@@ -9850,7 +12165,7 @@
         <v>2014.1666666666667</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>6</v>
       </c>
@@ -9872,7 +12187,7 @@
         <v>706.16666666666663</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>7</v>
       </c>
@@ -9894,7 +12209,7 @@
         <v>235.57142857142858</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>7</v>
       </c>
@@ -9916,7 +12231,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>7</v>
       </c>
@@ -9938,7 +12253,7 @@
         <v>186.14285714285714</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>7</v>
       </c>
@@ -9960,7 +12275,7 @@
         <v>359.42857142857144</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>7</v>
       </c>
@@ -9982,7 +12297,7 @@
         <v>1992.7142857142858</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>7</v>
       </c>
@@ -10004,7 +12319,7 @@
         <v>215.42857142857142</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>7</v>
       </c>
@@ -10026,7 +12341,7 @@
         <v>163.42857142857142</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>7</v>
       </c>
@@ -10048,7 +12363,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>7</v>
       </c>
@@ -10070,7 +12385,7 @@
         <v>1104.2857142857142</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>7</v>
       </c>
@@ -10092,7 +12407,7 @@
         <v>609.42857142857144</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>8</v>
       </c>
@@ -10114,7 +12429,7 @@
         <v>477.75</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>8</v>
       </c>
@@ -10136,7 +12451,7 @@
         <v>126.75</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>8</v>
       </c>
@@ -10158,7 +12473,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>8</v>
       </c>
@@ -10180,7 +12495,7 @@
         <v>2282.125</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>8</v>
       </c>
@@ -10202,7 +12517,7 @@
         <v>315.5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>8</v>
       </c>
@@ -10224,7 +12539,7 @@
         <v>1383.5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>8</v>
       </c>
@@ -10246,7 +12561,7 @@
         <v>514.25</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>8</v>
       </c>
@@ -10268,7 +12583,7 @@
         <v>720.5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>8</v>
       </c>
@@ -10290,7 +12605,7 @@
         <v>1331.25</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>8</v>
       </c>
@@ -10312,7 +12627,7 @@
         <v>394.125</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>9</v>
       </c>
@@ -10334,7 +12649,7 @@
         <v>1269.4444444444443</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>9</v>
       </c>
@@ -10356,7 +12671,7 @@
         <v>1051.1111111111111</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>9</v>
       </c>
@@ -10378,7 +12693,7 @@
         <v>1616.4444444444443</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>9</v>
       </c>
@@ -10400,7 +12715,7 @@
         <v>1726.2222222222222</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>9</v>
       </c>
@@ -10422,7 +12737,7 @@
         <v>1159.4444444444443</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>9</v>
       </c>
@@ -10444,7 +12759,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>9</v>
       </c>
@@ -10466,7 +12781,7 @@
         <v>1438.5555555555557</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>9</v>
       </c>
@@ -10488,7 +12803,7 @@
         <v>975.44444444444446</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>9</v>
       </c>
@@ -10510,7 +12825,7 @@
         <v>2082.8888888888887</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>9</v>
       </c>
@@ -10532,7 +12847,7 @@
         <v>161.55555555555554</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>10</v>
       </c>
@@ -10554,7 +12869,7 @@
         <v>1322.4</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>10</v>
       </c>
@@ -10576,7 +12891,7 @@
         <v>1140.3</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>10</v>
       </c>
@@ -10598,7 +12913,7 @@
         <v>523.6</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>10</v>
       </c>
@@ -10620,7 +12935,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>10</v>
       </c>
@@ -10642,7 +12957,7 @@
         <v>1018.7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>10</v>
       </c>
@@ -10664,7 +12979,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>10</v>
       </c>
@@ -10686,7 +13001,7 @@
         <v>850.5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>10</v>
       </c>
@@ -10708,7 +13023,7 @@
         <v>814.8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>10</v>
       </c>
@@ -10730,7 +13045,7 @@
         <v>1396.9</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>10</v>
       </c>
@@ -10757,4 +13072,1135 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>379</v>
+      </c>
+      <c r="C2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>277</v>
+      </c>
+      <c r="C3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>716</v>
+      </c>
+      <c r="C4">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2914</v>
+      </c>
+      <c r="C7">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>948</v>
+      </c>
+      <c r="C8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>356</v>
+      </c>
+      <c r="C9">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>405</v>
+      </c>
+      <c r="C11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2047</v>
+      </c>
+      <c r="C12">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>5113</v>
+      </c>
+      <c r="C13">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>87.5</v>
+      </c>
+      <c r="C14">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1324.5</v>
+      </c>
+      <c r="C15">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>3459</v>
+      </c>
+      <c r="C16">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>697.5</v>
+      </c>
+      <c r="C17">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>43.5</v>
+      </c>
+      <c r="C18">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>878</v>
+      </c>
+      <c r="C19">
+        <v>586.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>667</v>
+      </c>
+      <c r="C20">
+        <v>499.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1157.5</v>
+      </c>
+      <c r="C21">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>6509</v>
+      </c>
+      <c r="C22">
+        <v>289.66666666700002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1561</v>
+      </c>
+      <c r="C23">
+        <v>1070.33333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>1291</v>
+      </c>
+      <c r="C24">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>1778</v>
+      </c>
+      <c r="C25">
+        <v>1470.66666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>6521</v>
+      </c>
+      <c r="C26">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>1850</v>
+      </c>
+      <c r="C27">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1208.33333333</v>
+      </c>
+      <c r="C28">
+        <v>742.33333333300004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>7156.6666666700003</v>
+      </c>
+      <c r="C29">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>2332.6666666699998</v>
+      </c>
+      <c r="C30">
+        <v>1948.33333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>983</v>
+      </c>
+      <c r="C31">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>9912.25</v>
+      </c>
+      <c r="C32">
+        <v>2844.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>11569.5</v>
+      </c>
+      <c r="C33">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>8090.75</v>
+      </c>
+      <c r="C34">
+        <v>1982.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>5457.25</v>
+      </c>
+      <c r="C35">
+        <v>519.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>5140.75</v>
+      </c>
+      <c r="C36">
+        <v>203.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>8812.25</v>
+      </c>
+      <c r="C37">
+        <v>2013.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>6527.75</v>
+      </c>
+      <c r="C38">
+        <v>661.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>6414.75</v>
+      </c>
+      <c r="C39">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>6308.75</v>
+      </c>
+      <c r="C40">
+        <v>782.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>5711.25</v>
+      </c>
+      <c r="C41">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>4697.8</v>
+      </c>
+      <c r="C42">
+        <v>296.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>4775.6000000000004</v>
+      </c>
+      <c r="C43">
+        <v>394.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>6733.6</v>
+      </c>
+      <c r="C44">
+        <v>1532.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>5642</v>
+      </c>
+      <c r="C45">
+        <v>803.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>12278.4</v>
+      </c>
+      <c r="C46">
+        <v>4262.3999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>5350.8</v>
+      </c>
+      <c r="C47">
+        <v>1119.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>4785.6000000000004</v>
+      </c>
+      <c r="C48">
+        <v>237.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>11650.8</v>
+      </c>
+      <c r="C49">
+        <v>4187.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>4567.8</v>
+      </c>
+      <c r="C50">
+        <v>690.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>6105.4</v>
+      </c>
+      <c r="C51">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>4437.3333333299997</v>
+      </c>
+      <c r="C52">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>4269.1666666700003</v>
+      </c>
+      <c r="C53">
+        <v>504.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>10038</v>
+      </c>
+      <c r="C54">
+        <v>4136.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>6014.1666666700003</v>
+      </c>
+      <c r="C55">
+        <v>1951.33333333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>7164.8333333299997</v>
+      </c>
+      <c r="C56">
+        <v>2369.1666666699998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>4136.3333333299997</v>
+      </c>
+      <c r="C57">
+        <v>378.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>3900.6666666699998</v>
+      </c>
+      <c r="C58">
+        <v>137.33333333300001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>5272</v>
+      </c>
+      <c r="C59">
+        <v>1142.33333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>4355.1666666700003</v>
+      </c>
+      <c r="C60">
+        <v>600.83333333300004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>7066.5</v>
+      </c>
+      <c r="C61">
+        <v>2424.6666666699998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>8488.5714285699996</v>
+      </c>
+      <c r="C62">
+        <v>2967.8571428599998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>5592.7142857099998</v>
+      </c>
+      <c r="C63">
+        <v>1390.5714285700001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>6290.1428571400002</v>
+      </c>
+      <c r="C64">
+        <v>2338.1428571400002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>3500.5714285700001</v>
+      </c>
+      <c r="C65">
+        <v>324.57142857100001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>4571</v>
+      </c>
+      <c r="C66">
+        <v>908.42857142900004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>4596.2857142900002</v>
+      </c>
+      <c r="C67">
+        <v>975.85714285699999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>3228</v>
+      </c>
+      <c r="C68">
+        <v>272.14285714300001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>9375.8571428600007</v>
+      </c>
+      <c r="C69">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>4204.7142857099998</v>
+      </c>
+      <c r="C70">
+        <v>834.85714285699999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>5063.7142857099998</v>
+      </c>
+      <c r="C71">
+        <v>1119.28571429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>3495.875</v>
+      </c>
+      <c r="C72">
+        <v>481.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>3750.375</v>
+      </c>
+      <c r="C73">
+        <v>828.875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>5492.5</v>
+      </c>
+      <c r="C74">
+        <v>1894.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>7152.375</v>
+      </c>
+      <c r="C75">
+        <v>2374.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>3612.25</v>
+      </c>
+      <c r="C76">
+        <v>810.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>3097.5</v>
+      </c>
+      <c r="C77">
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>6191.125</v>
+      </c>
+      <c r="C78">
+        <v>2216.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>3514.875</v>
+      </c>
+      <c r="C79">
+        <v>628.875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>3660.125</v>
+      </c>
+      <c r="C80">
+        <v>659.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>3601.5</v>
+      </c>
+      <c r="C81">
+        <v>723.125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>2837.2222222199998</v>
+      </c>
+      <c r="C82">
+        <v>294.33333333299998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>2999.1111111099999</v>
+      </c>
+      <c r="C83">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>4725.7777777800002</v>
+      </c>
+      <c r="C84">
+        <v>1562.8888888900001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85">
+        <v>3680.7777777800002</v>
+      </c>
+      <c r="C85">
+        <v>846.44444444400006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>4248.5555555600004</v>
+      </c>
+      <c r="C86">
+        <v>1048.4444444400001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>9</v>
+      </c>
+      <c r="B87">
+        <v>5090.5555555600004</v>
+      </c>
+      <c r="C87">
+        <v>1442.33333333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>9</v>
+      </c>
+      <c r="B88">
+        <v>3078.7777777800002</v>
+      </c>
+      <c r="C88">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>5197.8888888900001</v>
+      </c>
+      <c r="C89">
+        <v>1777.5555555599999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>4364.8888888900001</v>
+      </c>
+      <c r="C90">
+        <v>1536.66666667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>2378.5555555599999</v>
+      </c>
+      <c r="C91">
+        <v>166.444444444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>4681.6000000000004</v>
+      </c>
+      <c r="C92">
+        <v>1884.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>3691.4</v>
+      </c>
+      <c r="C93">
+        <v>866.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>10</v>
+      </c>
+      <c r="B94">
+        <v>2925.8</v>
+      </c>
+      <c r="C94">
+        <v>477.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>10</v>
+      </c>
+      <c r="B95">
+        <v>2638.6</v>
+      </c>
+      <c r="C95">
+        <v>280.10000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>10</v>
+      </c>
+      <c r="B96">
+        <v>3010</v>
+      </c>
+      <c r="C96">
+        <v>666.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>10</v>
+      </c>
+      <c r="B97">
+        <v>3443</v>
+      </c>
+      <c r="C97">
+        <v>1057.9000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>10</v>
+      </c>
+      <c r="B98">
+        <v>2600.6</v>
+      </c>
+      <c r="C98">
+        <v>319.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>10</v>
+      </c>
+      <c r="B99">
+        <v>3382.6</v>
+      </c>
+      <c r="C99">
+        <v>736.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>10</v>
+      </c>
+      <c r="B100">
+        <v>2713.3</v>
+      </c>
+      <c r="C100">
+        <v>204.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>10</v>
+      </c>
+      <c r="B101">
+        <v>3933.6</v>
+      </c>
+      <c r="C101">
+        <v>1107.5999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>